--- a/Data/Airpassengers.xlsx
+++ b/Data/Airpassengers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Documents/RTCZ/RTCZ/R/Data Science/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E059EE77-53F1-44D2-9507-FA10DD431D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{E059EE77-53F1-44D2-9507-FA10DD431D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017180DB-0576-4CD5-B02D-CBF273CFAA18}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{03250863-CAC5-4A87-8C48-D6AF5598CA08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03250863-CAC5-4A87-8C48-D6AF5598CA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Airpassengers" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,7 +556,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,10 +935,13 @@
   <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -944,7 +950,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
